--- a/src/hw1/code/data_from_code.xlsx
+++ b/src/hw1/code/data_from_code.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -91,6 +91,22 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,14 +129,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5063,7 +5095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B14:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="113" zoomScaleNormal="92" zoomScalePageLayoutView="92" workbookViewId="0">
+    <sheetView topLeftCell="B15" zoomScale="113" zoomScaleNormal="92" zoomScalePageLayoutView="92" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -5287,8 +5319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="F14" zoomScale="94" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="94" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>

--- a/src/hw1/code/data_from_code.xlsx
+++ b/src/hw1/code/data_from_code.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2051,7 +2051,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Number Of Non Zeros Verus Log(Lamda)</a:t>
+              <a:t>Number Of Non Zero</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Coefficients</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Versus Lamda</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2125,34 +2133,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0688812894078129</c:v>
+                  <c:v>1.171875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.369911285071794</c:v>
+                  <c:v>2.34375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.670941280735775</c:v>
+                  <c:v>4.687500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.971971276399756</c:v>
+                  <c:v>9.375000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.273001272063738</c:v>
+                  <c:v>18.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.574031267727719</c:v>
+                  <c:v>37.50000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8750612633917</c:v>
+                  <c:v>75.00000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.176091259055681</c:v>
+                  <c:v>150.0000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.477121254719662</c:v>
+                  <c:v>300.0000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.778151250383643</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2164,34 +2172,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>21.0</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.0</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.0</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.0</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>93.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2238,7 +2246,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Log(Lamda)</a:t>
+                  <a:t>Lamda</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2359,7 +2367,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>RSS(w)</a:t>
+                  <a:t>Non Zero Coefficients</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5319,8 +5327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="91" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -5728,34 +5736,34 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.8881289407812879E-2</v>
+        <v>1.171875</v>
       </c>
       <c r="E25">
-        <v>0.36991128507179405</v>
+        <v>2.34375</v>
       </c>
       <c r="F25">
-        <v>0.6709412807357753</v>
+        <v>4.6875000000000009</v>
       </c>
       <c r="G25">
-        <v>0.97197127639975645</v>
+        <v>9.3750000000000036</v>
       </c>
       <c r="H25">
-        <v>1.2730012720637376</v>
+        <v>18.75</v>
       </c>
       <c r="I25">
-        <v>1.5740312677277188</v>
+        <v>37.500000000000021</v>
       </c>
       <c r="J25">
-        <v>1.8750612633917001</v>
+        <v>75.000000000000043</v>
       </c>
       <c r="K25">
-        <v>2.1760912590556813</v>
+        <v>150.00000000000009</v>
       </c>
       <c r="L25">
-        <v>2.4771212547196626</v>
+        <v>300.00000000000023</v>
       </c>
       <c r="M25">
-        <v>2.7781512503836434</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -5763,33 +5771,75 @@
         <v>15</v>
       </c>
       <c r="D26">
+        <v>74</v>
+      </c>
+      <c r="E26">
+        <v>59</v>
+      </c>
+      <c r="F26">
+        <v>45</v>
+      </c>
+      <c r="G26">
+        <v>31</v>
+      </c>
+      <c r="H26">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <v>12</v>
+      </c>
+      <c r="J26">
+        <v>7</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f t="shared" ref="D27:L27" si="1">95-D26</f>
         <v>21</v>
       </c>
-      <c r="E26">
+      <c r="E27">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="F26">
+      <c r="F27">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="G26">
+      <c r="G27">
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="H26">
+      <c r="H27">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="I26">
+      <c r="I27">
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="J26">
+      <c r="J27">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="K26">
+      <c r="K27">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="L26">
+      <c r="L27">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="M26">
+      <c r="M27">
+        <f>95-M26</f>
         <v>95</v>
       </c>
     </row>
